--- a/refs/heads/rc2-ddcc/StructureDefinition-DDCCAddBundle.xlsx
+++ b/refs/heads/rc2-ddcc/StructureDefinition-DDCCAddBundle.xlsx
@@ -742,7 +742,7 @@
 QuestionnaireAnswersForm Data</t>
   </si>
   <si>
-    <t xml:space="preserve">QuestionnaireResponse {https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCQuestionnaireResponse}
+    <t xml:space="preserve">QuestionnaireResponse {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCQuestionnaireResponse}
 </t>
   </si>
   <si>
@@ -772,7 +772,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Patient {https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCPatient}
+    <t xml:space="preserve">Patient {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCPatient}
 </t>
   </si>
   <si>
@@ -791,7 +791,7 @@
     <t>ddccImmunization</t>
   </si>
   <si>
-    <t xml:space="preserve">Immunization {https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCImmunization}
+    <t xml:space="preserve">Immunization {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunization}
 </t>
   </si>
   <si>
@@ -810,7 +810,7 @@
     <t>ddccImmunizationRecommendation</t>
   </si>
   <si>
-    <t xml:space="preserve">ImmunizationRecommendation {https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCImmunizationRecommendation}
+    <t xml:space="preserve">ImmunizationRecommendation {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunizationRecommendation}
 </t>
   </si>
   <si>
@@ -826,7 +826,7 @@
     <t>ddccDocumentReference</t>
   </si>
   <si>
-    <t xml:space="preserve">DocumentReference {https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCDocumentReference}
+    <t xml:space="preserve">DocumentReference {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCDocumentReference}
 </t>
   </si>
   <si>
@@ -848,7 +848,7 @@
     <t>ddccComposition</t>
   </si>
   <si>
-    <t xml:space="preserve">Composition {https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCComposition}
+    <t xml:space="preserve">Composition {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCComposition}
 </t>
   </si>
   <si>
